--- a/config_Release/xiaoxiaole_once_game_rank_server.xlsx
+++ b/config_Release/xiaoxiaole_once_game_rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
         <v>1568071800</v>
       </c>
       <c r="C2" s="4">
-        <v>4718907000</v>
+        <v>1568071801</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/xiaoxiaole_once_game_rank_server.xlsx
+++ b/config_Release/xiaoxiaole_once_game_rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
